--- a/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
+++ b/backend/uploads/transkip_nilai/Transkip_Nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -26,13 +26,13 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>Jusuf Abimas Pratama</t>
+    <t>Rama Aditra</t>
   </si>
   <si>
     <t>NIM</t>
   </si>
   <si>
-    <t>I0715015</t>
+    <t>I0415070</t>
   </si>
   <si>
     <t>ANGKATAN</t>
@@ -65,376 +65,325 @@
     <t>CPMK 5</t>
   </si>
   <si>
-    <t>EE0101-19</t>
-  </si>
-  <si>
-    <t>Kalkulus I</t>
-  </si>
-  <si>
-    <t>EE0102-19</t>
-  </si>
-  <si>
-    <t>Fisika Dasar I</t>
-  </si>
-  <si>
-    <t>EE0103-19</t>
-  </si>
-  <si>
-    <t>Matematika Diskret dan Logika</t>
-  </si>
-  <si>
-    <t>EE0104-19</t>
-  </si>
-  <si>
-    <t>Aljabar Linear</t>
-  </si>
-  <si>
-    <t>EE0105-19</t>
-  </si>
-  <si>
-    <t>Kimia</t>
-  </si>
-  <si>
-    <t>EE0106-19</t>
-  </si>
-  <si>
-    <t>Filsafat Ilmu Pengetahuan</t>
-  </si>
-  <si>
-    <t>EE0107-19</t>
-  </si>
-  <si>
-    <t>Pemrograman Dasar dan Lab</t>
-  </si>
-  <si>
-    <t>EE0108-19</t>
-  </si>
-  <si>
-    <t>Orientasi Prodi</t>
-  </si>
-  <si>
-    <t>EE0201-19</t>
-  </si>
-  <si>
-    <t>Kalkulus II</t>
-  </si>
-  <si>
-    <t>EE0202-19</t>
-  </si>
-  <si>
-    <t>Fisika Dasar II</t>
-  </si>
-  <si>
-    <t>EE0203-19</t>
-  </si>
-  <si>
-    <t>Praktikum Fisika Dasar</t>
-  </si>
-  <si>
-    <t>EE0204-19</t>
-  </si>
-  <si>
-    <t>Probabilitas dan Statistika</t>
-  </si>
-  <si>
-    <t>EE0205-19</t>
-  </si>
-  <si>
-    <t>Rangkaian Listrik I</t>
-  </si>
-  <si>
-    <t>EE0206-19</t>
-  </si>
-  <si>
-    <t>Organisasi dan Arsitektur Komputer</t>
-  </si>
-  <si>
-    <t>EE0207-19</t>
-  </si>
-  <si>
-    <t>Teknik Digital</t>
-  </si>
-  <si>
-    <t>EE0208-19</t>
-  </si>
-  <si>
-    <t>Proyek Kreatif I</t>
-  </si>
-  <si>
-    <t>EE0209-19</t>
-  </si>
-  <si>
-    <t>Prak. Elektro Dasar I</t>
-  </si>
-  <si>
-    <t>EE0210-20</t>
-  </si>
-  <si>
-    <t>Prak. Teknik Digital</t>
-  </si>
-  <si>
-    <t>EE0301-19</t>
-  </si>
-  <si>
-    <t>Metode Numerik</t>
-  </si>
-  <si>
-    <t>EE0302-19</t>
-  </si>
-  <si>
-    <t>Matematika Teknik I</t>
-  </si>
-  <si>
-    <t>EE0303-19</t>
-  </si>
-  <si>
-    <t>Medan Elektromagnetis</t>
-  </si>
-  <si>
-    <t>EE0304-19</t>
-  </si>
-  <si>
-    <t>Elektronika Dasar</t>
-  </si>
-  <si>
-    <t>EE0305-19</t>
-  </si>
-  <si>
-    <t>Rangkaian Listrik II</t>
-  </si>
-  <si>
-    <t>EE0306-19</t>
-  </si>
-  <si>
-    <t>Isyarat dan Sistem</t>
-  </si>
-  <si>
-    <t>EE0307-19</t>
-  </si>
-  <si>
-    <t>Mesin Listrik Dasar</t>
-  </si>
-  <si>
-    <t>EE0308-19</t>
-  </si>
-  <si>
-    <t>Proyek Kreatif II</t>
-  </si>
-  <si>
-    <t>EE0309-19</t>
-  </si>
-  <si>
-    <t>Prak. Elektro Dasar II</t>
-  </si>
-  <si>
-    <t>EE0401-19</t>
-  </si>
-  <si>
-    <t>Matematika Teknik II</t>
-  </si>
-  <si>
-    <t>EE0402-19</t>
-  </si>
-  <si>
-    <t>Instrumentasi</t>
-  </si>
-  <si>
-    <t>EE0403-19</t>
-  </si>
-  <si>
-    <t>Elektronika Analog</t>
-  </si>
-  <si>
-    <t>EE0404-19</t>
-  </si>
-  <si>
-    <t>Telekomunikasi Dasar</t>
-  </si>
-  <si>
-    <t>EE0405-19</t>
-  </si>
-  <si>
-    <t>Teknik Tenaga Listrik</t>
-  </si>
-  <si>
-    <t>EE0406-19</t>
-  </si>
-  <si>
-    <t>Sistem Kendali</t>
-  </si>
-  <si>
-    <t>EE0407-19</t>
-  </si>
-  <si>
-    <t>Sistem Mikroprosessor</t>
-  </si>
-  <si>
-    <t>EE0408-19</t>
-  </si>
-  <si>
-    <t>Proyek Kreatif III</t>
-  </si>
-  <si>
-    <t>EE0409-19</t>
-  </si>
-  <si>
-    <t>Prak. Elektronika</t>
-  </si>
-  <si>
-    <t>EE0410-19</t>
-  </si>
-  <si>
-    <t>Prak. Teknik Tenaga Listrik</t>
-  </si>
-  <si>
-    <t>EE0501-19</t>
-  </si>
-  <si>
-    <t>Jaringan Komunikasi Data</t>
-  </si>
-  <si>
-    <t>EE0502-19</t>
-  </si>
-  <si>
-    <t>Mekatronika</t>
-  </si>
-  <si>
-    <t>EE0503-19</t>
-  </si>
-  <si>
-    <t>Prak. Telekomunikasi Dasar</t>
-  </si>
-  <si>
-    <t>EE0504-19</t>
-  </si>
-  <si>
-    <t>Prak. Sistem Kendali</t>
-  </si>
-  <si>
-    <t>EE0505-19</t>
-  </si>
-  <si>
-    <t>Proyek Kreatif IV</t>
-  </si>
-  <si>
-    <t>EE0601-19</t>
-  </si>
-  <si>
-    <t>Kerja Praktek</t>
-  </si>
-  <si>
-    <t>EE0602-19</t>
-  </si>
-  <si>
-    <t>Energi Baru dan Terbarukan</t>
-  </si>
-  <si>
-    <t>EE0604-19</t>
-  </si>
-  <si>
-    <t>Desain Capstone</t>
-  </si>
-  <si>
-    <t>EE0701-19</t>
-  </si>
-  <si>
-    <t>Seminar Proposal Skripsi</t>
-  </si>
-  <si>
-    <t>EE0702-19</t>
-  </si>
-  <si>
-    <t>Kecerdasan Buatan</t>
-  </si>
-  <si>
-    <t>EE0703-19</t>
-  </si>
-  <si>
-    <t>Agama dan Etika</t>
-  </si>
-  <si>
-    <t>EE0704-19</t>
-  </si>
-  <si>
-    <t>Kewarganegaraan</t>
-  </si>
-  <si>
-    <t>EE0705-19</t>
-  </si>
-  <si>
-    <t>Kewirausahaan</t>
-  </si>
-  <si>
-    <t>EE0706-19</t>
-  </si>
-  <si>
-    <t>Manajemen Industri</t>
-  </si>
-  <si>
-    <t>EE0801-19</t>
-  </si>
-  <si>
-    <t>Skripsi dan Pendadaran</t>
-  </si>
-  <si>
-    <t>EE0802-19</t>
-  </si>
-  <si>
-    <t>Kuliah Kerja Nyata</t>
-  </si>
-  <si>
-    <t>EE2501-19</t>
-  </si>
-  <si>
-    <t>Sistem Otomasi dan PLC</t>
-  </si>
-  <si>
-    <t>EE2502-19</t>
-  </si>
-  <si>
-    <t>Teknik Robot</t>
-  </si>
-  <si>
-    <t>EE2503-19</t>
-  </si>
-  <si>
-    <t>Pnenumatik Hidrolik</t>
-  </si>
-  <si>
-    <t>EE2504-19</t>
-  </si>
-  <si>
-    <t>Sistem Berbasis Mikroprosesor</t>
-  </si>
-  <si>
-    <t>EE2505-19</t>
-  </si>
-  <si>
-    <t>Teknik Kendali Lanjut</t>
-  </si>
-  <si>
-    <t>EE2601-19</t>
-  </si>
-  <si>
-    <t>Kendaraan Cerdas</t>
-  </si>
-  <si>
-    <t>EE2602-19</t>
-  </si>
-  <si>
-    <t>Kontrol Sistem Energi</t>
-  </si>
-  <si>
-    <t>EE2603-19</t>
-  </si>
-  <si>
-    <t>Sistem Terintegrasi</t>
-  </si>
-  <si>
-    <t>EE2604-19</t>
-  </si>
-  <si>
-    <t>Topik Pilihan Kontrol Mekatronika</t>
+    <t>MS-32304-20</t>
+  </si>
+  <si>
+    <t>Matematika 1</t>
+  </si>
+  <si>
+    <t>MS11012-15</t>
+  </si>
+  <si>
+    <t>Agama -15</t>
+  </si>
+  <si>
+    <t>MS12032-15</t>
+  </si>
+  <si>
+    <t>Kimia-15</t>
+  </si>
+  <si>
+    <t>MS12023-15</t>
+  </si>
+  <si>
+    <t>Kalkulus 1-15</t>
+  </si>
+  <si>
+    <t>MS12013-15</t>
+  </si>
+  <si>
+    <t>Fisika 1-15</t>
+  </si>
+  <si>
+    <t>MS11022-15</t>
+  </si>
+  <si>
+    <t>Bahasa Inggris Teknik-15</t>
+  </si>
+  <si>
+    <t>MS12042-15</t>
+  </si>
+  <si>
+    <t>Menggambar Teknik-15</t>
+  </si>
+  <si>
+    <t>MS14021-15</t>
+  </si>
+  <si>
+    <t>Prak. Material Teknik-15</t>
+  </si>
+  <si>
+    <t>MS15012-15</t>
+  </si>
+  <si>
+    <t>Proses Produksi 1-15</t>
+  </si>
+  <si>
+    <t>MS15021-15</t>
+  </si>
+  <si>
+    <t>Prak. Proses Produksi 1-15</t>
+  </si>
+  <si>
+    <t>MS14012-15</t>
+  </si>
+  <si>
+    <t>Material Teknik-15</t>
+  </si>
+  <si>
+    <t>MS22032-15</t>
+  </si>
+  <si>
+    <t>Kalkulus 2-15</t>
+  </si>
+  <si>
+    <t>MS22021-15</t>
+  </si>
+  <si>
+    <t>Prak. Fisika-15</t>
+  </si>
+  <si>
+    <t>MS22012-15</t>
+  </si>
+  <si>
+    <t>Fisika 2-15</t>
+  </si>
+  <si>
+    <t>MS23013-15</t>
+  </si>
+  <si>
+    <t>Statika Struktur-15</t>
+  </si>
+  <si>
+    <t>MS21012-15</t>
+  </si>
+  <si>
+    <t>Ilmu Sosial dan Budaya Dasar-15</t>
+  </si>
+  <si>
+    <t>MS22052-15</t>
+  </si>
+  <si>
+    <t>Menggambar Mesin-15</t>
+  </si>
+  <si>
+    <t>MS26013-15</t>
+  </si>
+  <si>
+    <t>Termodinamika 1-15</t>
+  </si>
+  <si>
+    <t>MS41012-15</t>
+  </si>
+  <si>
+    <t>Kewirausahaan-15</t>
+  </si>
+  <si>
+    <t>MS25012-15</t>
+  </si>
+  <si>
+    <t>Proses Produksi 2-15</t>
+  </si>
+  <si>
+    <t>MS25021-15</t>
+  </si>
+  <si>
+    <t>Prak. Proses Produksi 2-15</t>
+  </si>
+  <si>
+    <t>MS33013-15</t>
+  </si>
+  <si>
+    <t>Kinematika-15</t>
+  </si>
+  <si>
+    <t>MS32013-15</t>
+  </si>
+  <si>
+    <t>Matematika Teknik 1-15</t>
+  </si>
+  <si>
+    <t>MS31012-15</t>
+  </si>
+  <si>
+    <t>Bahasa Indonesia-15</t>
+  </si>
+  <si>
+    <t>Metrologi Industri-15</t>
+  </si>
+  <si>
+    <t>MS16013-15</t>
+  </si>
+  <si>
+    <t>Mekanika Fluida 1-15</t>
+  </si>
+  <si>
+    <t>MS36032-15</t>
+  </si>
+  <si>
+    <t>Termodinamika 2-15</t>
+  </si>
+  <si>
+    <t>MS32022-15</t>
+  </si>
+  <si>
+    <t>Pemrograman Komputer-15</t>
+  </si>
+  <si>
+    <t>MS46013-15</t>
+  </si>
+  <si>
+    <t>Mekanika Fluida 2-15</t>
+  </si>
+  <si>
+    <t>MS43012-15</t>
+  </si>
+  <si>
+    <t>Dinamika-15</t>
+  </si>
+  <si>
+    <t>MS43023-15</t>
+  </si>
+  <si>
+    <t>Elemen Mesin 1-15</t>
+  </si>
+  <si>
+    <t>MS42013-5</t>
+  </si>
+  <si>
+    <t>Matematika Teknik 2-15</t>
+  </si>
+  <si>
+    <t>Mekanika Kekuatan Bahan-15</t>
+  </si>
+  <si>
+    <t>MS46023-15</t>
+  </si>
+  <si>
+    <t>Perpindahan Kalor 1-15</t>
+  </si>
+  <si>
+    <t>MS47012-15</t>
+  </si>
+  <si>
+    <t>Teknik Pengukuran-15</t>
+  </si>
+  <si>
+    <t>MS44012-15</t>
+  </si>
+  <si>
+    <t>Metalurgi Fisik-15</t>
+  </si>
+  <si>
+    <t>MS44021-15</t>
+  </si>
+  <si>
+    <t>Prak. Metalurgi Fisik-15</t>
+  </si>
+  <si>
+    <t>MS05043-15</t>
+  </si>
+  <si>
+    <t>Perancangan dan Pengembangan Produk-15</t>
+  </si>
+  <si>
+    <t>MS53013-15</t>
+  </si>
+  <si>
+    <t>Getaran Mekanik-15</t>
+  </si>
+  <si>
+    <t>MS52012-15</t>
+  </si>
+  <si>
+    <t>Metodologi penelitian-15</t>
+  </si>
+  <si>
+    <t>MS51012-15</t>
+  </si>
+  <si>
+    <t>Pendidikan Pancasila-15</t>
+  </si>
+  <si>
+    <t>MS57021-15</t>
+  </si>
+  <si>
+    <t>Prak. Teknik Tenaga Listrik-15</t>
+  </si>
+  <si>
+    <t>MS57012-15</t>
+  </si>
+  <si>
+    <t>Teknik Tenaga Listrik-15</t>
+  </si>
+  <si>
+    <t>MS55012-15</t>
+  </si>
+  <si>
+    <t>Manajemen Industri-15</t>
+  </si>
+  <si>
+    <t>MS53023-15</t>
+  </si>
+  <si>
+    <t>Elemen Mesin 2-15</t>
+  </si>
+  <si>
+    <t>MS77012-15</t>
+  </si>
+  <si>
+    <t>Teknik Pengaturan-15</t>
+  </si>
+  <si>
+    <t>MS04043-15</t>
+  </si>
+  <si>
+    <t>Turbin-15</t>
+  </si>
+  <si>
+    <t>MS65012-15</t>
+  </si>
+  <si>
+    <t>Pemilihan bahan dan Proses-15</t>
+  </si>
+  <si>
+    <t>MS82011-15</t>
+  </si>
+  <si>
+    <t>Kegiatan Mandiri-15</t>
+  </si>
+  <si>
+    <t>MS62022-15</t>
+  </si>
+  <si>
+    <t>Kerja Praktek-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS66012-15 </t>
+  </si>
+  <si>
+    <t>Prak. Fenomena Dasar Mesin-15</t>
+  </si>
+  <si>
+    <t>MS67041-15</t>
+  </si>
+  <si>
+    <t>Prak. Sistem Pneumatik dan Hidrolik-15</t>
+  </si>
+  <si>
+    <t>Sistem Pneumatik dan Hidrolik-15</t>
+  </si>
+  <si>
+    <t>MS66022-15</t>
+  </si>
+  <si>
+    <t>Mesin Konversi Energi-15</t>
+  </si>
+  <si>
+    <t>MS62012-15</t>
+  </si>
+  <si>
+    <t>Metode Komputasi dan Numerik-15</t>
   </si>
 </sst>
 </file>
@@ -839,7 +788,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G8" sqref="G8"/>
@@ -972,16 +921,10 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>65.6451</v>
+        <v>83.75</v>
       </c>
       <c r="E11">
-        <v>69.3549</v>
-      </c>
-      <c r="F11">
-        <v>68.8545</v>
-      </c>
-      <c r="G11">
-        <v>66.1455</v>
+        <v>77.9167</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -995,16 +938,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>60.926</v>
+        <v>82.0</v>
       </c>
       <c r="E12">
-        <v>64.074</v>
-      </c>
-      <c r="F12">
-        <v>62.8326</v>
-      </c>
-      <c r="G12">
-        <v>62.1674</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1018,16 +955,10 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>77.1515</v>
+        <v>80.19</v>
       </c>
       <c r="E13">
-        <v>77.8485</v>
-      </c>
-      <c r="F13">
-        <v>78.3271</v>
-      </c>
-      <c r="G13">
-        <v>76.6729</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1041,19 +972,10 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>66.709</v>
+        <v>60.0</v>
       </c>
       <c r="E14">
-        <v>68.291</v>
-      </c>
-      <c r="F14">
-        <v>69.1023</v>
-      </c>
-      <c r="G14">
-        <v>65.8977</v>
-      </c>
-      <c r="H14">
-        <v>67.6955</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1067,19 +989,10 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>71.2724</v>
+        <v>60.0</v>
       </c>
       <c r="E15">
-        <v>73.7276</v>
-      </c>
-      <c r="F15">
-        <v>74.0731</v>
-      </c>
-      <c r="G15">
-        <v>70.9269</v>
-      </c>
-      <c r="H15">
-        <v>73.7987</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1093,19 +1006,10 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>82.2278</v>
+        <v>64.0</v>
       </c>
       <c r="E16">
-        <v>82.7722</v>
-      </c>
-      <c r="F16">
-        <v>84.9359</v>
-      </c>
-      <c r="G16">
-        <v>80.0641</v>
-      </c>
-      <c r="H16">
-        <v>83.6234</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1119,19 +1023,10 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>75.6262</v>
+        <v>64.0</v>
       </c>
       <c r="E17">
-        <v>79.3738</v>
-      </c>
-      <c r="F17">
-        <v>77.9579</v>
-      </c>
-      <c r="G17">
-        <v>77.0421</v>
-      </c>
-      <c r="H17">
-        <v>79.4753</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1145,16 +1040,16 @@
         <v>31</v>
       </c>
       <c r="D18">
-        <v>80.7336</v>
+        <v>77.8</v>
       </c>
       <c r="E18">
-        <v>84.2664</v>
+        <v>81.0</v>
       </c>
       <c r="F18">
-        <v>84.78</v>
+        <v>79.4</v>
       </c>
       <c r="G18">
-        <v>80.22</v>
+        <v>79.4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1168,16 +1063,10 @@
         <v>33</v>
       </c>
       <c r="D19">
-        <v>60.0894</v>
+        <v>90.0</v>
       </c>
       <c r="E19">
-        <v>64.9106</v>
-      </c>
-      <c r="F19">
-        <v>63.4516</v>
-      </c>
-      <c r="G19">
-        <v>61.5484</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1191,16 +1080,13 @@
         <v>35</v>
       </c>
       <c r="D20">
-        <v>71.2964</v>
+        <v>84.0</v>
       </c>
       <c r="E20">
-        <v>73.7036</v>
+        <v>84.0</v>
       </c>
       <c r="F20">
-        <v>74.3257</v>
-      </c>
-      <c r="G20">
-        <v>70.6743</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1214,13 +1100,10 @@
         <v>37</v>
       </c>
       <c r="D21">
-        <v>71.2292</v>
+        <v>71.0</v>
       </c>
       <c r="E21">
-        <v>73.7708</v>
-      </c>
-      <c r="F21">
-        <v>72.9376</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1234,19 +1117,10 @@
         <v>39</v>
       </c>
       <c r="D22">
-        <v>61.3061</v>
+        <v>61.5</v>
       </c>
       <c r="E22">
-        <v>63.6939</v>
-      </c>
-      <c r="F22">
-        <v>64.8926</v>
-      </c>
-      <c r="G22">
-        <v>60.1074</v>
-      </c>
-      <c r="H22">
-        <v>63.4323</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1260,16 +1134,13 @@
         <v>41</v>
       </c>
       <c r="D23">
-        <v>60.528</v>
+        <v>80.0</v>
       </c>
       <c r="E23">
-        <v>64.472</v>
+        <v>65.0</v>
       </c>
       <c r="F23">
-        <v>64.1685</v>
-      </c>
-      <c r="G23">
-        <v>60.8315</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1283,19 +1154,10 @@
         <v>43</v>
       </c>
       <c r="D24">
-        <v>75.1359</v>
+        <v>79.0</v>
       </c>
       <c r="E24">
-        <v>79.8641</v>
-      </c>
-      <c r="F24">
-        <v>79.965</v>
-      </c>
-      <c r="G24">
-        <v>75.035</v>
-      </c>
-      <c r="H24">
-        <v>77.5684</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1309,16 +1171,10 @@
         <v>45</v>
       </c>
       <c r="D25">
-        <v>62.4421</v>
+        <v>70.0</v>
       </c>
       <c r="E25">
-        <v>62.5579</v>
-      </c>
-      <c r="F25">
-        <v>63.7416</v>
-      </c>
-      <c r="G25">
-        <v>61.2584</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1332,19 +1188,10 @@
         <v>47</v>
       </c>
       <c r="D26">
-        <v>72.0214</v>
+        <v>80.0</v>
       </c>
       <c r="E26">
-        <v>72.9786</v>
-      </c>
-      <c r="F26">
-        <v>74.397</v>
-      </c>
-      <c r="G26">
-        <v>70.603</v>
-      </c>
-      <c r="H26">
-        <v>74.507</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1358,16 +1205,10 @@
         <v>49</v>
       </c>
       <c r="D27">
-        <v>60.0661</v>
+        <v>60.0</v>
       </c>
       <c r="E27">
-        <v>64.9339</v>
-      </c>
-      <c r="F27">
-        <v>63.4874</v>
-      </c>
-      <c r="G27">
-        <v>61.5126</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1381,13 +1222,10 @@
         <v>51</v>
       </c>
       <c r="D28">
-        <v>61.1504</v>
+        <v>55.0</v>
       </c>
       <c r="E28">
-        <v>63.8496</v>
-      </c>
-      <c r="F28">
-        <v>64.9698</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1401,19 +1239,10 @@
         <v>53</v>
       </c>
       <c r="D29">
-        <v>72.2468</v>
+        <v>80.0</v>
       </c>
       <c r="E29">
-        <v>72.7532</v>
-      </c>
-      <c r="F29">
-        <v>72.794</v>
-      </c>
-      <c r="G29">
-        <v>72.206</v>
-      </c>
-      <c r="H29">
-        <v>73.8247</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1427,16 +1256,10 @@
         <v>55</v>
       </c>
       <c r="D30">
-        <v>85.6397</v>
+        <v>80.4</v>
       </c>
       <c r="E30">
-        <v>89.3603</v>
-      </c>
-      <c r="F30">
-        <v>88.3965</v>
-      </c>
-      <c r="G30">
-        <v>86.6035</v>
+        <v>80.4</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1450,16 +1273,13 @@
         <v>57</v>
       </c>
       <c r="D31">
-        <v>67.0358</v>
+        <v>80.4</v>
       </c>
       <c r="E31">
-        <v>67.9642</v>
+        <v>80.4</v>
       </c>
       <c r="F31">
-        <v>67.9775</v>
-      </c>
-      <c r="G31">
-        <v>67.0225</v>
+        <v>80.4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1473,19 +1293,10 @@
         <v>59</v>
       </c>
       <c r="D32">
-        <v>60.384</v>
+        <v>60.0</v>
       </c>
       <c r="E32">
-        <v>64.616</v>
-      </c>
-      <c r="F32">
-        <v>63.5326</v>
-      </c>
-      <c r="G32">
-        <v>61.4674</v>
-      </c>
-      <c r="H32">
-        <v>64.326</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1499,19 +1310,10 @@
         <v>61</v>
       </c>
       <c r="D33">
-        <v>86.1256</v>
+        <v>51.0</v>
       </c>
       <c r="E33">
-        <v>88.8744</v>
-      </c>
-      <c r="F33">
-        <v>89.3022</v>
-      </c>
-      <c r="G33">
-        <v>85.6978</v>
-      </c>
-      <c r="H33">
-        <v>87.7939</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1525,19 +1327,10 @@
         <v>63</v>
       </c>
       <c r="D34">
-        <v>60.0802</v>
+        <v>70.0</v>
       </c>
       <c r="E34">
-        <v>64.9198</v>
-      </c>
-      <c r="F34">
-        <v>63.5365</v>
-      </c>
-      <c r="G34">
-        <v>61.4635</v>
-      </c>
-      <c r="H34">
-        <v>63.318</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1545,25 +1338,16 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
       <c r="D35">
-        <v>60.6705</v>
+        <v>77.0</v>
       </c>
       <c r="E35">
-        <v>64.3295</v>
-      </c>
-      <c r="F35">
-        <v>63.0069</v>
-      </c>
-      <c r="G35">
-        <v>61.9931</v>
-      </c>
-      <c r="H35">
-        <v>64.6725</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1571,25 +1355,19 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
       <c r="D36">
-        <v>86.2071</v>
+        <v>60.0</v>
       </c>
       <c r="E36">
-        <v>88.7929</v>
+        <v>60.0</v>
       </c>
       <c r="F36">
-        <v>88.5727</v>
-      </c>
-      <c r="G36">
-        <v>86.4273</v>
-      </c>
-      <c r="H36">
-        <v>88.6623</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1597,25 +1375,16 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
       <c r="D37">
-        <v>85.9465</v>
+        <v>62.5</v>
       </c>
       <c r="E37">
-        <v>89.0535</v>
-      </c>
-      <c r="F37">
-        <v>87.5964</v>
-      </c>
-      <c r="G37">
-        <v>87.4036</v>
-      </c>
-      <c r="H37">
-        <v>89.0226</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1623,25 +1392,16 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
         <v>70</v>
       </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
       <c r="D38">
-        <v>71.1028</v>
+        <v>70.0</v>
       </c>
       <c r="E38">
-        <v>73.8972</v>
-      </c>
-      <c r="F38">
-        <v>73.6893</v>
-      </c>
-      <c r="G38">
-        <v>71.3107</v>
-      </c>
-      <c r="H38">
-        <v>73.2046</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1649,25 +1409,16 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
       <c r="D39">
-        <v>70.7218</v>
+        <v>68.0</v>
       </c>
       <c r="E39">
-        <v>74.2782</v>
-      </c>
-      <c r="F39">
-        <v>74.6206</v>
-      </c>
-      <c r="G39">
-        <v>70.3794</v>
-      </c>
-      <c r="H39">
-        <v>73.5461</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1675,25 +1426,16 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
         <v>74</v>
       </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
       <c r="D40">
-        <v>62.3166</v>
+        <v>75.0</v>
       </c>
       <c r="E40">
-        <v>62.6834</v>
-      </c>
-      <c r="F40">
-        <v>64.831</v>
-      </c>
-      <c r="G40">
-        <v>60.169</v>
-      </c>
-      <c r="H40">
-        <v>63.3561</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1701,25 +1443,16 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
       <c r="D41">
-        <v>71.0094</v>
+        <v>65.0</v>
       </c>
       <c r="E41">
-        <v>73.9906</v>
-      </c>
-      <c r="F41">
-        <v>74.4822</v>
-      </c>
-      <c r="G41">
-        <v>70.5178</v>
-      </c>
-      <c r="H41">
-        <v>72.7458</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1727,25 +1460,16 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
         <v>78</v>
       </c>
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
       <c r="D42">
-        <v>82.1707</v>
+        <v>58.3333</v>
       </c>
       <c r="E42">
-        <v>82.8293</v>
-      </c>
-      <c r="F42">
-        <v>83.7895</v>
-      </c>
-      <c r="G42">
-        <v>81.2105</v>
-      </c>
-      <c r="H42">
-        <v>82.5652</v>
+        <v>58.3333</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1753,25 +1477,16 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D43">
-        <v>60.472</v>
+        <v>68.0</v>
       </c>
       <c r="E43">
-        <v>64.528</v>
-      </c>
-      <c r="F43">
-        <v>64.365</v>
-      </c>
-      <c r="G43">
-        <v>60.635</v>
-      </c>
-      <c r="H43">
-        <v>64.2446</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1779,25 +1494,16 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44">
-        <v>75.1136</v>
+        <v>75.0</v>
       </c>
       <c r="E44">
-        <v>79.8864</v>
-      </c>
-      <c r="F44">
-        <v>79.9102</v>
-      </c>
-      <c r="G44">
-        <v>75.0898</v>
-      </c>
-      <c r="H44">
-        <v>79.3823</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1805,25 +1511,16 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45">
-        <v>81.7562</v>
+        <v>70.0</v>
       </c>
       <c r="E45">
-        <v>83.2438</v>
-      </c>
-      <c r="F45">
-        <v>83.5416</v>
-      </c>
-      <c r="G45">
-        <v>81.4584</v>
-      </c>
-      <c r="H45">
-        <v>84.6769</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1831,25 +1528,16 @@
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D46">
-        <v>62.2621</v>
+        <v>53.0</v>
       </c>
       <c r="E46">
-        <v>62.7379</v>
-      </c>
-      <c r="F46">
-        <v>64.8173</v>
-      </c>
-      <c r="G46">
-        <v>60.1827</v>
-      </c>
-      <c r="H46">
-        <v>64.9361</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1857,19 +1545,19 @@
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D47">
-        <v>80.7439</v>
+        <v>81.0</v>
       </c>
       <c r="E47">
-        <v>84.2561</v>
+        <v>81.0</v>
       </c>
       <c r="F47">
-        <v>82.5444</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1877,22 +1565,19 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D48">
-        <v>71.585</v>
+        <v>73.0</v>
       </c>
       <c r="E48">
-        <v>73.415</v>
+        <v>80.0</v>
       </c>
       <c r="F48">
-        <v>73.9753</v>
-      </c>
-      <c r="G48">
-        <v>71.0247</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1900,22 +1585,13 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49">
-        <v>86.1514</v>
-      </c>
-      <c r="E49">
-        <v>88.8486</v>
-      </c>
-      <c r="F49">
-        <v>87.6402</v>
-      </c>
-      <c r="G49">
-        <v>87.3598</v>
+        <v>64.6667</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1923,25 +1599,16 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D50">
-        <v>71.3459</v>
+        <v>60.0</v>
       </c>
       <c r="E50">
-        <v>73.6541</v>
-      </c>
-      <c r="F50">
-        <v>73.0985</v>
-      </c>
-      <c r="G50">
-        <v>71.9015</v>
-      </c>
-      <c r="H50">
-        <v>74.3398</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1949,19 +1616,16 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51">
-        <v>60.6188</v>
+        <v>90.0</v>
       </c>
       <c r="E51">
-        <v>64.3812</v>
-      </c>
-      <c r="F51">
-        <v>64.8383</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1969,25 +1633,16 @@
         <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52">
-        <v>85.6422</v>
+        <v>82.0</v>
       </c>
       <c r="E52">
-        <v>89.3578</v>
-      </c>
-      <c r="F52">
-        <v>89.1895</v>
-      </c>
-      <c r="G52">
-        <v>85.8105</v>
-      </c>
-      <c r="H52">
-        <v>89.3921</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1995,19 +1650,16 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53">
-        <v>80.1583</v>
+        <v>83.0</v>
       </c>
       <c r="E53">
-        <v>84.8417</v>
-      </c>
-      <c r="F53">
-        <v>83.2383</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2015,25 +1667,16 @@
         <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54">
-        <v>60.0765</v>
+        <v>73.0</v>
       </c>
       <c r="E54">
-        <v>64.9235</v>
-      </c>
-      <c r="F54">
-        <v>64.8449</v>
-      </c>
-      <c r="G54">
-        <v>60.1551</v>
-      </c>
-      <c r="H54">
-        <v>63.1523</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2041,19 +1684,16 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D55">
-        <v>86.06</v>
+        <v>89.3333</v>
       </c>
       <c r="E55">
-        <v>88.94</v>
-      </c>
-      <c r="F55">
-        <v>87.8366</v>
+        <v>89.3333</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2061,19 +1701,13 @@
         <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56">
-        <v>82.4197</v>
-      </c>
-      <c r="E56">
-        <v>82.5803</v>
-      </c>
-      <c r="F56">
-        <v>82.6634</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2081,19 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57">
-        <v>61.729</v>
+        <v>90.0</v>
       </c>
       <c r="E57">
-        <v>63.271</v>
+        <v>85.0</v>
       </c>
       <c r="F57">
-        <v>63.829</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2101,19 +1735,19 @@
         <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D58">
-        <v>85.9316</v>
+        <v>81.5</v>
       </c>
       <c r="E58">
-        <v>89.0684</v>
+        <v>81.5</v>
       </c>
       <c r="F58">
-        <v>89.1246</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2121,22 +1755,16 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59">
-        <v>76.1928</v>
+        <v>82.0</v>
       </c>
       <c r="E59">
-        <v>78.8072</v>
-      </c>
-      <c r="F59">
-        <v>79.3458</v>
-      </c>
-      <c r="G59">
-        <v>75.6542</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2144,22 +1772,19 @@
         <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D60">
-        <v>65.4928</v>
+        <v>82.0</v>
       </c>
       <c r="E60">
-        <v>69.5072</v>
+        <v>82.0</v>
       </c>
       <c r="F60">
-        <v>69.8918</v>
-      </c>
-      <c r="G60">
-        <v>65.1082</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2167,22 +1792,19 @@
         <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D61">
-        <v>71.1711</v>
+        <v>76.09</v>
       </c>
       <c r="E61">
-        <v>73.8289</v>
+        <v>70.0</v>
       </c>
       <c r="F61">
-        <v>72.8177</v>
-      </c>
-      <c r="G61">
-        <v>72.1823</v>
+        <v>73.045</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2190,25 +1812,19 @@
         <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D62">
-        <v>86.1038</v>
+        <v>83.625</v>
       </c>
       <c r="E62">
-        <v>88.8962</v>
+        <v>83.625</v>
       </c>
       <c r="F62">
-        <v>89.1082</v>
-      </c>
-      <c r="G62">
-        <v>85.8918</v>
-      </c>
-      <c r="H62">
-        <v>89.8525</v>
+        <v>83.625</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2216,22 +1832,16 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D63">
-        <v>86.3264</v>
+        <v>64.0</v>
       </c>
       <c r="E63">
-        <v>88.6736</v>
-      </c>
-      <c r="F63">
-        <v>89.9162</v>
-      </c>
-      <c r="G63">
-        <v>85.0838</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2239,22 +1849,16 @@
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D64">
-        <v>85.3152</v>
+        <v>71.0</v>
       </c>
       <c r="E64">
-        <v>89.6848</v>
-      </c>
-      <c r="F64">
-        <v>88.3895</v>
-      </c>
-      <c r="G64">
-        <v>86.6105</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2262,201 +1866,16 @@
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D65">
-        <v>81.3744</v>
+        <v>60.0</v>
       </c>
       <c r="E65">
-        <v>83.6256</v>
-      </c>
-      <c r="F65">
-        <v>84.846</v>
-      </c>
-      <c r="G65">
-        <v>80.154</v>
-      </c>
-      <c r="H65">
-        <v>82.8581</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
-        <v>56</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66">
-        <v>87.4468</v>
-      </c>
-      <c r="E66">
-        <v>87.5532</v>
-      </c>
-      <c r="F66">
-        <v>88.4827</v>
-      </c>
-      <c r="G66">
-        <v>86.5173</v>
-      </c>
-      <c r="H66">
-        <v>87.612</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
-        <v>57</v>
-      </c>
-      <c r="B67" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67">
-        <v>85.6338</v>
-      </c>
-      <c r="E67">
-        <v>89.3662</v>
-      </c>
-      <c r="F67">
-        <v>87.8104</v>
-      </c>
-      <c r="G67">
-        <v>87.1896</v>
-      </c>
-      <c r="H67">
-        <v>88.5962</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68">
-        <v>58</v>
-      </c>
-      <c r="B68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68">
-        <v>75.9718</v>
-      </c>
-      <c r="E68">
-        <v>79.0282</v>
-      </c>
-      <c r="F68">
-        <v>79.9778</v>
-      </c>
-      <c r="G68">
-        <v>75.0222</v>
-      </c>
-      <c r="H68">
-        <v>77.5542</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
-        <v>59</v>
-      </c>
-      <c r="B69" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69">
-        <v>85.2813</v>
-      </c>
-      <c r="E69">
-        <v>89.7187</v>
-      </c>
-      <c r="F69">
-        <v>88.8558</v>
-      </c>
-      <c r="G69">
-        <v>86.1442</v>
-      </c>
-      <c r="H69">
-        <v>88.5087</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
-        <v>60</v>
-      </c>
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70">
-        <v>80.7898</v>
-      </c>
-      <c r="E70">
-        <v>84.2102</v>
-      </c>
-      <c r="F70">
-        <v>82.7677</v>
-      </c>
-      <c r="G70">
-        <v>82.2323</v>
-      </c>
-      <c r="H70">
-        <v>84.5445</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
-        <v>61</v>
-      </c>
-      <c r="B71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71">
-        <v>85.5089</v>
-      </c>
-      <c r="E71">
-        <v>89.4911</v>
-      </c>
-      <c r="F71">
-        <v>89.7459</v>
-      </c>
-      <c r="G71">
-        <v>85.2541</v>
-      </c>
-      <c r="H71">
-        <v>89.5417</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72">
-        <v>62</v>
-      </c>
-      <c r="B72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72">
-        <v>70.1214</v>
-      </c>
-      <c r="E72">
-        <v>74.8786</v>
-      </c>
-      <c r="F72">
-        <v>74.0236</v>
+        <v>60.0</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +1896,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
